--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1241,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1276,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1334,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1634,10 +1646,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1681,28 +1693,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1727,28 +1739,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1981,10 +1993,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2028,28 +2040,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2074,28 +2086,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2328,10 +2340,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2375,28 +2387,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2421,28 +2433,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2617,10 +2629,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2664,28 +2676,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2710,28 +2722,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2935,10 +2947,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2982,28 +2994,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3028,28 +3040,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3224,10 +3236,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3271,28 +3283,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3317,28 +3329,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3513,10 +3525,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3560,28 +3572,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3606,28 +3618,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3773,10 +3785,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3820,28 +3832,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3866,28 +3878,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4033,10 +4045,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4080,28 +4092,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4126,28 +4138,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4322,10 +4334,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4369,28 +4381,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4415,28 +4427,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4640,10 +4652,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4687,28 +4699,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4733,28 +4745,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4929,10 +4941,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4976,28 +4988,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5022,28 +5034,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5160,10 +5172,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
+      <c r="J174" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5207,28 +5219,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5253,28 +5265,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5391,10 +5403,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
+      <c r="J182" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5438,28 +5450,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5484,28 +5496,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5593,10 +5605,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="J189" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5640,28 +5652,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5686,28 +5698,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
